--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="23250" windowHeight="13170" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="516" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="8" r:id="rId1"/>
@@ -1572,7 +1572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>sex</t>
   </si>
@@ -1893,13 +1893,19 @@
   </si>
   <si>
     <t>row_link</t>
+  </si>
+  <si>
+    <t>https://github.com/oookoook/spider-trait-database/blob/master/docs/template.md</t>
+  </si>
+  <si>
+    <t>For more information on the format of all columns, incuding References see</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1959,6 +1965,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2022,12 +2034,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2056,8 +2069,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1"/>
     <cellStyle name="Normální 3" xfId="2"/>
@@ -2276,42 +2291,42 @@
       <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1"/>
@@ -2428,7 +2443,7 @@
       <c r="X2" s="6"/>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2449,7 +2464,7 @@
       <c r="X3" s="6"/>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2470,7 +2485,7 @@
       <c r="X4" s="6"/>
       <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2491,7 +2506,7 @@
       <c r="X5" s="6"/>
       <c r="AE5" s="6"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2511,7 +2526,7 @@
       <c r="S6" s="2"/>
       <c r="AE6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2539,7 +2554,7 @@
       <c r="AB7" s="6"/>
       <c r="AE7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2559,7 +2574,7 @@
       <c r="R8"/>
       <c r="AE8" s="6"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
@@ -2581,7 +2596,7 @@
       <c r="AB9" s="6"/>
       <c r="AE9" s="6"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10"/>
       <c r="D10" s="6"/>
@@ -2611,48 +2626,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>94</v>
       </c>
@@ -2750,7 +2765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>47</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>45</v>
       </c>
@@ -2936,7 +2951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>58</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>76</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>87</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3157,7 +3172,7 @@
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
     </row>
-    <row r="15" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3184,9 +3199,22 @@
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="516" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="8" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Windows User</author>
     <author>user</author>
     <author/>
   </authors>
@@ -29,6 +30,78 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Select one: Acari, Amblypygi, Araneae, Opiliones,Pseudoscorpiones, Palpigradi, Ricinulei, Schizomida, Scorpiones, Solifugae, Thelyphonida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used for all other orders than Araneae</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genus or full species name. Only used for all other orders than Araneae</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
@@ -47,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -73,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -99,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -151,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -177,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -203,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -229,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="L1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -241,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -267,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -293,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="O1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -320,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -346,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -372,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="R1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -398,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="S1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -424,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -450,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -476,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -502,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="W1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -528,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="X1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -554,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="Y1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -580,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Z1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -606,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AA1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -632,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AB1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -658,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -684,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AD1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -710,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AE1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -736,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -762,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AH1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -795,6 +868,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Windows User</author>
     <author>user</author>
     <author/>
   </authors>
@@ -807,6 +881,78 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Select one: Acari, Amblypygi, Araneae, Opiliones,Pseudoscorpiones, Palpigradi, Ricinulei, Schizomida, Scorpiones, Solifugae, Thelyphonida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used for all other orders than Araneae</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Genus or full species name. Only used for all other orders than Araneae</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
@@ -825,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -851,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="G1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -877,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -903,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -929,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -955,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -981,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="L1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="M1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="O1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="R1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="S1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="W1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="X1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="Y1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Z1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AA1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1385,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AB1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AD1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AE1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1489,7 +1635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1515,7 +1661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AG1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1541,7 +1687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AI1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1572,7 +1718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>sex</t>
   </si>
@@ -1736,9 +1882,6 @@
     <t>25 °C</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>Frontinella pyramitela</t>
   </si>
   <si>
@@ -1760,9 +1903,6 @@
     <t>adult</t>
   </si>
   <si>
-    <t>CZ</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -1899,13 +2039,88 @@
   </si>
   <si>
     <t>For more information on the format of all columns, incuding References see</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>taxon</t>
+  </si>
+  <si>
+    <t>Araneae</t>
+  </si>
+  <si>
+    <t>Solifugae</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Trygettus sexoculatus</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekár S, Král J &amp; Lubin Y. D. 2005. Natural history and karyotype of some ant-eating zodariid spiders (Araneae, Zodariidae) from Israel. Journal of Arachnology 33: 50–62. </t>
+  </si>
+  <si>
+    <t>Zodarion nitidum</t>
+  </si>
+  <si>
+    <t>eggn</t>
+  </si>
+  <si>
+    <t>Zodarion germanicum</t>
+  </si>
+  <si>
+    <t>circ</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Pekár S. 2004. Predatory behavior of two European ant-eating spiders (Araneae, Zodariidae). Journal of Arachnology 32(1): 31–41.</t>
+  </si>
+  <si>
+    <t>preysi</t>
+  </si>
+  <si>
+    <t>Pekár S &amp; Haddad C.R. 2011. Trophic strategy of ant-eating Mexcala elegans (Araneae: Salticidae): Looking for evidence of evolution of prey-specialization. Journal of Arachnology 39(1): 133–138.</t>
+  </si>
+  <si>
+    <t>Body size</t>
+  </si>
+  <si>
+    <t>Number of eggs/eggsac</t>
+  </si>
+  <si>
+    <t>Prey size</t>
+  </si>
+  <si>
+    <t>Circadian activity</t>
+  </si>
+  <si>
+    <t>Desiidae</t>
+  </si>
+  <si>
+    <t>Gluvia dorsalis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1973,6 +2188,38 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2007,13 +2254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,13 +2281,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2057,31 +2305,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Normální 2" xfId="1"/>
     <cellStyle name="Normální 3" xfId="2"/>
+    <cellStyle name="normální_zodariony" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2285,337 +2540,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:AE1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.6640625" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="V1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2"/>
+    <row r="2" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="24"/>
+      <c r="D2"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="X2" s="6"/>
-      <c r="AE2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="6"/>
+      <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3"/>
+    <row r="3" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="5"/>
-      <c r="G3"/>
+      <c r="G3" s="1"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
+      <c r="M3" s="6"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" s="6"/>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="X3" s="6"/>
-      <c r="AE3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="6"/>
+      <c r="AH3" s="6"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4"/>
+    <row r="4" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="24"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
-      <c r="G4"/>
+      <c r="G4" s="1"/>
       <c r="H4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4" s="6"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="X4" s="6"/>
-      <c r="AE4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="6"/>
+      <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="6"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="X5" s="6"/>
-      <c r="AE5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="AA5" s="6"/>
+      <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
       <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="S6" s="2"/>
-      <c r="AE6" s="6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="2"/>
+      <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E7" s="13"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="H7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="6"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="19"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="16"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="6"/>
+      <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E8"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
-      <c r="I8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" s="6"/>
+      <c r="H8"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
+      <c r="L8"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="AE8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="AH8" s="6"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9"/>
-      <c r="N9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="X9" s="6"/>
-      <c r="AB9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="AA9" s="6"/>
       <c r="AE9" s="6"/>
+      <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10"/>
-      <c r="D10" s="6"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="L10"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="AE10" s="25"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="AH10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2626,592 +2903,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="M2">
+        <v>27</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2">
+        <v>51.6614</v>
+      </c>
+      <c r="Y2">
+        <v>12.407208000000001</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AI2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="M3">
+        <v>17.2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>0.2</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="F4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4">
+        <v>0.01</v>
+      </c>
+      <c r="R4">
+        <v>52</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="AI6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>400</v>
+      </c>
+      <c r="AA7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>14960</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
+      <c r="M9">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10">
+        <v>1.2</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="AI10" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="AI11" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="AB12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="27">
+        <v>29</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="AB13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="28">
+        <v>6</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="28">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="AB14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-      <c r="J2">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2">
-        <v>51.6614</v>
-      </c>
-      <c r="V2">
-        <v>12.407208000000001</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="G3" s="5"/>
-      <c r="J3">
-        <v>17.2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3">
-        <v>0.2</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4">
-        <v>0.01</v>
-      </c>
-      <c r="O4">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="AF6" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="13">
-        <v>400</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>14960</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
-      <c r="J8">
-        <v>23</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="1"/>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9">
-        <v>30</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>1.2</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="AF10" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-    </row>
-    <row r="15" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="15"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="17"/>
-      <c r="AC15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamk\dev\pajouci\spider-trait-database\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063181BC-F44C-49C7-98F1-FCFA7FAFAAC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="8" r:id="rId1"/>
@@ -15,86 +21,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Windows User</author>
     <author>user</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Select one: Acari, Amblypygi, Araneae, Opiliones,Pseudoscorpiones, Palpigradi, Ricinulei, Schizomida, Scorpiones, Solifugae, Thelyphonida</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Only used for all other orders than Araneae</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Genus or full species name. Only used for all other orders than Araneae</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -523,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -549,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -575,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -679,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -705,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -731,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -757,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -783,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -809,7 +742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="1">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -835,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="1">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -866,86 +799,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Windows User</author>
     <author>user</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Select one: Acari, Amblypygi, Araneae, Opiliones,Pseudoscorpiones, Palpigradi, Ricinulei, Schizomida, Scorpiones, Solifugae, Thelyphonida</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Only used for all other orders than Araneae</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Genus or full species name. Only used for all other orders than Araneae</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -971,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -997,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1023,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1101,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1127,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="2">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1271,7 +1131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1297,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1323,7 +1183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1479,7 +1339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1635,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="1">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +1521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="1">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1687,7 +1547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="1">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1718,7 +1578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>sex</t>
   </si>
@@ -2041,24 +1901,9 @@
     <t>For more information on the format of all columns, incuding References see</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>CZE</t>
   </si>
   <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>Araneae</t>
-  </si>
-  <si>
-    <t>Solifugae</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
@@ -2108,9 +1953,6 @@
   </si>
   <si>
     <t>Circadian activity</t>
-  </si>
-  <si>
-    <t>Desiidae</t>
   </si>
   <si>
     <t>Gluvia dorsalis</t>
@@ -2119,8 +1961,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2189,27 +2031,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2221,7 +2042,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2258,12 +2079,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2286,9 +2101,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2316,18 +2131,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Normální 2" xfId="1"/>
-    <cellStyle name="Normální 3" xfId="2"/>
-    <cellStyle name="normální_zodariony" xfId="4"/>
+    <cellStyle name="Normální 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normální 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="normální_zodariony" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2539,360 +2352,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>102</v>
       </c>
+      <c r="T1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="W1" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="24"/>
-      <c r="D2"/>
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2"/>
       <c r="F2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="I2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2" s="6"/>
-      <c r="P2"/>
+      <c r="P2" s="6"/>
       <c r="Q2"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="R2"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="14"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="6"/>
-      <c r="AH2" s="6"/>
+      <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="E3" s="12"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
+      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="5"/>
-      <c r="J3"/>
+      <c r="I3"/>
+      <c r="J3" s="6"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" s="6"/>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3"/>
+      <c r="P3" s="6"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3" s="6"/>
-      <c r="T3"/>
-      <c r="U3"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="E4" s="12"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
+      <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="5"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="6"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4" s="6"/>
-      <c r="T4"/>
-      <c r="U4"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E5" s="12"/>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5" s="6"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5" s="6"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="AA5" s="6"/>
-      <c r="AH5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="AE5" s="6"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E6" s="6"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6"/>
+      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="V6" s="2"/>
-      <c r="AH6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="S6" s="2"/>
+      <c r="AE6" s="6"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E7" s="13"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
-      <c r="H7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7" s="6"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7" s="6"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="16"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="15"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="16"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="6"/>
       <c r="AE7" s="6"/>
-      <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
-      <c r="H8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="L8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8"/>
+      <c r="H8" s="5"/>
+      <c r="I8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8" s="6"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8" s="6"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="AH8" s="6"/>
+      <c r="AE8" s="6"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E9" s="6"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="1"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="I9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9"/>
+      <c r="N9"/>
       <c r="O9" s="6"/>
-      <c r="P9"/>
+      <c r="P9" s="6"/>
       <c r="Q9"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="AA9" s="6"/>
+      <c r="R9"/>
+      <c r="X9" s="6"/>
+      <c r="AB9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="AH10" s="22"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="AE10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2902,741 +2702,683 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>102</v>
       </c>
+      <c r="U1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="X1" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="M2">
+      <c r="J2">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
       <c r="P2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2">
+      <c r="U2">
         <v>51.6614</v>
       </c>
-      <c r="Y2">
+      <c r="V2">
         <v>12.407208000000001</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AI2" s="6" t="s">
+      <c r="Y2" s="6"/>
+      <c r="AF2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="M3">
+      <c r="E3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="J3">
         <v>17.2</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q3">
+      <c r="N3">
         <v>0.2</v>
       </c>
-      <c r="R3">
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="5"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="J4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="M4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q4">
+      <c r="N4">
         <v>0.01</v>
       </c>
-      <c r="R4">
+      <c r="O4">
         <v>52</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="M5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="AI6" s="6" t="s">
+      <c r="R6" s="6"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="AF6" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R7">
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="V7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="W7" s="13">
         <v>400</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="X7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="Z7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AB7" s="15">
         <v>14960</v>
       </c>
+      <c r="AC7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="AF7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI7" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8">
+      <c r="I8" s="5"/>
+      <c r="J8">
         <v>23</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R8">
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
-      <c r="M9">
+      <c r="J9">
         <v>0.1</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
       <c r="P9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AB9" s="6" t="s">
-        <v>109</v>
+      <c r="Y9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI9" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>111</v>
+      <c r="C10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="J10">
+        <v>1.2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10">
-        <v>1.2</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R10">
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="R10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="AI10" s="22" t="s">
+      <c r="T10" s="6"/>
+      <c r="AF10" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>112</v>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="J11" s="2">
         <v>5.9</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="AI11" s="6" t="s">
-        <v>125</v>
+      <c r="AF11" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="26" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="AB12" t="s">
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AI12" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>118</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="27">
+      <c r="J13" s="25">
         <v>29</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="AB13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>116</v>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>120</v>
-      </c>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="28">
+      <c r="J14" s="26">
         <v>6</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="28">
+      <c r="M14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="26">
         <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="AB14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>123</v>
+      <c r="Y14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -3651,7 +3393,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamk\dev\pajouci\spider-trait-database\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063181BC-F44C-49C7-98F1-FCFA7FAFAAC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="8" r:id="rId1"/>
@@ -21,13 +15,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>user</author>
     <author/>
+    <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,33 +48,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Taxon name as reported In the original source.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Taxon name (usually genus plus species) as reported in the original source.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -247,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -638,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -664,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -768,7 +763,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AD1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Abbreviation according to Reference list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,13 +818,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>user</author>
     <author/>
+    <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -831,33 +851,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Taxon name as reported In the original source.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Taxon name (usually genus plus species) as reported in the original source.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -883,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -935,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1104,34 +1124,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-Relative frequency of occurrence from total sample size
- (real number). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Relative frequency of occurrence (real number). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1183,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1339,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1391,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1417,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1443,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1469,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1521,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1547,7 +1566,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+    <comment ref="AE1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Abbreviation according to Reference list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,8 +2004,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2040,6 +2083,19 @@
       <sz val="10"/>
       <name val="Arial CE"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2138,9 +2194,9 @@
   <cellStyles count="5">
     <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Normální 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normální 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="normální_zodariony" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normální 2" xfId="1"/>
+    <cellStyle name="Normální 3" xfId="2"/>
+    <cellStyle name="normální_zodariony" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2352,49 +2408,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -2489,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="11"/>
       <c r="C2" s="5"/>
@@ -2514,7 +2570,7 @@
       <c r="Z2" s="6"/>
       <c r="AE2" s="6"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
@@ -2538,7 +2594,7 @@
       <c r="Z3" s="6"/>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1"/>
@@ -2562,7 +2618,7 @@
       <c r="Z4" s="6"/>
       <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2583,7 +2639,7 @@
       <c r="X5" s="6"/>
       <c r="AE5" s="6"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2603,7 +2659,7 @@
       <c r="S6" s="2"/>
       <c r="AE6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2631,7 +2687,7 @@
       <c r="AB7" s="6"/>
       <c r="AE7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2651,7 +2707,7 @@
       <c r="R8"/>
       <c r="AE8" s="6"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
@@ -2673,7 +2729,7 @@
       <c r="AB9" s="6"/>
       <c r="AE9" s="6"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10"/>
       <c r="D10" s="6"/>
@@ -2694,7 +2750,27 @@
       <c r="S10" s="6"/>
       <c r="AE10" s="22"/>
     </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G11" s="6"/>
+    </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G34">
+      <formula1>"character, real number, cislo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11">
+      <formula1>"character, integer, real number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"mean, median, min, max, description, single observation"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"both, female, male, unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"adult, all, egg, juvenile, larva"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2702,53 +2778,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2775,7 +2851,7 @@
       <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2842,7 +2918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
@@ -2961,7 +3037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -2997,7 +3073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>57</v>
       </c>
@@ -3086,7 +3162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -3122,7 +3198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>74</v>
       </c>
@@ -3166,7 +3242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>85</v>
       </c>
@@ -3214,7 +3290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -3253,7 +3329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>121</v>
       </c>
@@ -3295,7 +3371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>122</v>
       </c>
@@ -3337,7 +3413,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>124</v>
       </c>
@@ -3381,19 +3457,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
